--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3845.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3845.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.065618565002668</v>
+        <v>3.29094123840332</v>
       </c>
       <c r="B1">
-        <v>1.517868610177585</v>
+        <v>6.618060111999512</v>
       </c>
       <c r="C1">
-        <v>2.894392139601897</v>
+        <v>6.490407943725586</v>
       </c>
       <c r="D1">
-        <v>4.821582838852288</v>
+        <v>6.864789009094238</v>
       </c>
       <c r="E1">
-        <v>2.122958813616401</v>
+        <v>3.450332641601562</v>
       </c>
     </row>
   </sheetData>
